--- a/data/all_exclude_country_lists_isin.xlsx
+++ b/data/all_exclude_country_lists_isin.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anja\OneDrive - Gravercentret\Dokumenter\Python_projekter\kommune_investering\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F140F4-2CA4-44FA-8BC3-088DF153DAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="309">
   <si>
     <t>ISIN</t>
   </si>
@@ -388,9 +394,6 @@
     <t>XS2242418957</t>
   </si>
   <si>
-    <t>XS2242422397</t>
-  </si>
-  <si>
     <t>XS2263765856</t>
   </si>
   <si>
@@ -577,9 +580,6 @@
     <t>Forenede Arabiske Emirater (UAE)</t>
   </si>
   <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
@@ -748,9 +748,6 @@
     <t>Emirate of Abu Dhabi United Arab Emirates; Emirate of Dubai United Arab Emirates; United Arab Emirates</t>
   </si>
   <si>
-    <t>Development Bank of Kazakhstan JSC; Development Bank of Kazakhstan JSC 12.05.2025; Kazakhstan</t>
-  </si>
-  <si>
     <t>['Benin', 'BENIN INTL GOV BOND  ', nan, 'BENIN, REPUBLIC OF (GOVERNMENT)', 'Republic of Benin', '7.96% Benin Government International Bond 2038', 'Benin Government International Bond']</t>
   </si>
   <si>
@@ -832,9 +829,6 @@
     <t>2,763 DUGB 09-09-2030 (EMTN); 3,125 ADGB 30-09-2049 (REGS); 3,9 DUGB 09-09-2050 (EMTN); 4,917 UAE 25-09-2033 (REGS); ABU DHABI COMMERCIAL BNK 5.375% 18.07.2028; ABU DHABI COMMERCIAL BNK 5.5% 12.01.2029; ABU DHABI COMMERCIAL BNK PERP; ABU DHABI GOVT INT'L 3.125% 30.09.2049; ABU DHABI GOVT INT'L 5.5% 30.04.2054; DUBAI GOVT INT'L BONDS 3.9% 09.09.2050; FIN DEPT GOVT SHARJAH 4% 28.07.2050; FIN DEPT GOVT SHARJAH 4.375% 10.03.2051; FIN DEPT GOVT SHARJAH 6.5% 23.11.2032; FIRST ABU DHABI BANK PJS 5.125% 13.10.2027; MAGELLAN CAPITAL HOLD 08.07.2029; MDGH GMTN RSC LTD 3.7% 07.11.2049; MDGH GMTN RSC LTD 3.95% 21.05.2050; MDGH GMTN RSC LTD 4.375% 22.11.2033; MDGH GMTN RSC LTD 5.294% 04.06.2034; MDGH GMTN RSC LTD 5.875% 01.05.2034</t>
   </si>
   <si>
-    <t>13 DBKAZ 15-04-2027 (REGS); 5.50% Development Bank of Kazakhstan JSC 2027; DBKAZ 5 3/4 05/12/25; DEVELOPMENT BANK OF KAZA 5.5% 15.04.2027; KAZMUNAYGAS NATIONAL CO 3.5% 14.04.2033; KAZMUNAYGAS NATIONAL CO 6.375% 24.10.2048; SAMRUK KAZYNA JSC 2% 28.10.2026; TENGIZCHEVROIL FIN CO IN 2.625% 15.08.2025</t>
-  </si>
-  <si>
     <t>7,96 BENIN 13-02-2038 (REGS); 7.96% Benin Government International Bond 2038; BENIN INTL GOV BOND 6.875% 19.01.2052; BENIN INTL GOV BOND 7.96% 13.02.2038; Benin Government International Bond; Benin, Republic Of (Government) 4.95% 20350122</t>
   </si>
   <si>
@@ -896,9 +890,6 @@
   </si>
   <si>
     <t>Fanø; Herning; Kalundborg; Region Nordjylland; Ringkøbing-Skjern; Rødovre; Vejen; Vesthimmerland</t>
-  </si>
-  <si>
-    <t>Aabenraa; Fanø; Fredericia; Greve; Herning; Hillerød; Kalundborg; Kolding; Lemvig; Region Nordjylland; Rødovre; Silkeborg; Skive; Varde; Vejen</t>
   </si>
   <si>
     <t>Fanø; Hedensted; Herning; Kalundborg; Region Nordjylland; Ringkøbing-Skjern; Slagelse; Vesthimmerland</t>
@@ -961,8 +952,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,13 +1016,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1069,7 +1068,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1103,6 +1102,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1137,9 +1137,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1312,14 +1313,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,3621 +1351,3621 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H25" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H27" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G31" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H32" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H34" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H36" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G37" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H37" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H38" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G39" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F40" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G40" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H40" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G41" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G42" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H42" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G43" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H43" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F44" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G44" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H44" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G45" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H45" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F46" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G46" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H46" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F47" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G47" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H47" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F48" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G48" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H48" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F49" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G49" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H49" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G50" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H50" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F51" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G51" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H51" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G52" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H52" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F53" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G53" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H53" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G54" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H54" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F55" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G55" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H55" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F56" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G56" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H56" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G57" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H57" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G58" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H58" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F59" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G59" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H59" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E60" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G60" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H60" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F61" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G61" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H61" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E62" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F62" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G62" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H62" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F63" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G63" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H63" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F64" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G64" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H64" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G65" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H65" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F66" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G66" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H66" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G67" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H67" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E68" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F68" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G68" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H68" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G69" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H69" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F70" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G70" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H70" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F71" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G71" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E72" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F72" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G72" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H72" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E73" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F73" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G73" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H73" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E74" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F74" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G74" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H74" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F75" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G75" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H75" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E76" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F76" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G76" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H76" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E77" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F77" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G77" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H77" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F78" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G78" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H78" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F79" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G79" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H79" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D80" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F80" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H80" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D81" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E81" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F81" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G81" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H81" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E82" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F82" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G82" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H82" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D83" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E83" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F83" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G83" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H83" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F84" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G84" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H84" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E85" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F85" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H85" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D86" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E86" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F86" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G86" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H86" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E87" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F87" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G87" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H87" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E88" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F88" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G88" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H88" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D89" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F89" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G89" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H89" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F90" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G90" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H90" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F91" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G91" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H91" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F92" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G92" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H92" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E93" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F93" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G93" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H93" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C94" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D94" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E94" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F94" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G94" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H94" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F95" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G95" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H95" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F96" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G96" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H96" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D97" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E97" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F97" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G97" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H97" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D98" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E98" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F98" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G98" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H98" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D99" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F99" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G99" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H99" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E100" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F100" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G100" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H100" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F101" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G101" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H101" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D102" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E102" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F102" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G102" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H102" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D103" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E103" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F103" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G103" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H103" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E104" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G104" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H104" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E105" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F105" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G105" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H105" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C106" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E106" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F106" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G106" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H106" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C107" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E107" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F107" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G107" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H107" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F108" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G108" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H108" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C109" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E109" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F109" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G109" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H109" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E110" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F110" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G110" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H110" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E111" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F111" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G111" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H111" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E112" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F112" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G112" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H112" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E113" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F113" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G113" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H113" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C114" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E114" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F114" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G114" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H114" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C115" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D115" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E115" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F115" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G115" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H115" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C116" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D116" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E116" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F116" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G116" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H116" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D117" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E117" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F117" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G117" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H117" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C118" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D118" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E118" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F118" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G118" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H118" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C119" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D119" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E119" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F119" t="s">
         <v>269</v>
       </c>
       <c r="G119" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H119" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C120" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D120" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E120" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="G120" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H120" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E121" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G121" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H121" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D122" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G122" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H122" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="D123" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E123" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H123" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D124" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E124" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G124" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H124" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C125" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D125" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G125" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H125" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C126" t="s">
         <v>199</v>
       </c>
       <c r="D126" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E126" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G126" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H126" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C127" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D127" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="F127" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="G127" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H127" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D128" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G128" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H128" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D129" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E129" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H129" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C130" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D130" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E130" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G130" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H130" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D131" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E131" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G131" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H131" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C132" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D132" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E132" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F132" t="s">
         <v>269</v>
       </c>
       <c r="G132" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H132" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D133" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E133" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F133" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G133" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="H133" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C134" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D134" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E134" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F134" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G134" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="H134" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D135" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E135" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G135" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H135" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C136" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D136" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E136" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F136" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G136" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H136" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C137" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D137" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E137" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H137" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C138" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D138" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E138" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G138" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H138" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D139" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E139" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G139" t="s">
         <v>280</v>
       </c>
       <c r="H139" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C140" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D140" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E140" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F140" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G140" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H140" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -4970,383 +4976,357 @@
         <v>182</v>
       </c>
       <c r="D141" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E141" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F141" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G141" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H141" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C142" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D142" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E142" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G142" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H142" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D143" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E143" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F143" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G143" t="s">
         <v>288</v>
       </c>
       <c r="H143" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C144" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D144" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E144" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F144" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G144" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H144" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D145" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E145" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F145" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G145" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H145" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D146" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E146" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F146" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G146" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H146" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C147" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D147" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E147" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F147" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G147" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H147" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C148" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D148" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E148" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F148" t="s">
         <v>269</v>
       </c>
       <c r="G148" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H148" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C149" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D149" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E149" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F149" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="G149" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H149" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C150" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D150" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E150" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F150" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G150" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="H150" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C151" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D151" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E151" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F151" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G151" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H151" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C152" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D152" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E152" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F152" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G152" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H152" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C153" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D153" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E153" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F153" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G153" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H153" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C154" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D154" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E154" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F154" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G154" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H154" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" t="s">
-        <v>161</v>
-      </c>
-      <c r="B155" t="s">
-        <v>184</v>
-      </c>
-      <c r="C155" t="s">
-        <v>184</v>
-      </c>
-      <c r="D155" t="s">
-        <v>207</v>
-      </c>
-      <c r="E155" t="s">
-        <v>241</v>
-      </c>
-      <c r="F155" t="s">
-        <v>269</v>
-      </c>
-      <c r="G155" t="s">
-        <v>288</v>
-      </c>
-      <c r="H155" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/data/all_exclude_country_lists_isin.xlsx
+++ b/data/all_exclude_country_lists_isin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anja\OneDrive - Gravercentret\Dokumenter\Python_projekter\kommune_investering\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F140F4-2CA4-44FA-8BC3-088DF153DAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C221DA1E-1391-49C8-8F00-AEE186C37698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="310">
   <si>
     <t>ISIN</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>Menneskerettigheder; Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier; Ekskluderer lande, som enten er underlagt internationale sanktioner, eller som PFA har vurderet som ikke-investeringsegnede.</t>
+  </si>
+  <si>
+    <t>XS2294323386</t>
   </si>
 </sst>
 </file>
@@ -1314,18 +1317,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2625,7 +2628,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -3873,7 +3876,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -3951,7 +3954,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -4081,7 +4084,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -4107,7 +4110,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -4263,7 +4266,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -4627,7 +4630,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -4835,7 +4838,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -4887,7 +4890,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -4913,7 +4916,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -5043,7 +5046,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -5121,7 +5124,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -5225,7 +5228,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -5277,7 +5280,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -5327,6 +5330,32 @@
       </c>
       <c r="H154" t="s">
         <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>309</v>
+      </c>
+      <c r="B155" t="s">
+        <v>180</v>
+      </c>
+      <c r="C155" t="s">
+        <v>198</v>
+      </c>
+      <c r="D155" t="s">
+        <v>214</v>
+      </c>
+      <c r="E155" t="s">
+        <v>236</v>
+      </c>
+      <c r="F155" t="s">
+        <v>263</v>
+      </c>
+      <c r="G155" t="s">
+        <v>288</v>
+      </c>
+      <c r="H155" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
